--- a/biology/Zoologie/Benthogenia_mahi/Benthogenia_mahi.xlsx
+++ b/biology/Zoologie/Benthogenia_mahi/Benthogenia_mahi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benthogenia mahi est une espèce d'étoiles de mer abyssales de la famille des Porcellanasteridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benthogenia mahi se distingue de toutes les autres Porcellanasteridae par la présence d'organes cribriformes entre toutes ses plaques marginales, du disque à l'extrémité des bras, et de sa congénère Benthogenia cribellosa par ses bras plus robustes, moins de piquants oraux et adambulacraires, et des organes cribriformes ne recouvrant pas toute la surface de ses supéromarginales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benthogenia mahi se distingue de toutes les autres Porcellanasteridae par la présence d'organes cribriformes entre toutes ses plaques marginales, du disque à l'extrémité des bras, et de sa congénère Benthogenia cribellosa par ses bras plus robustes, moins de piquants oraux et adambulacraires, et des organes cribriformes ne recouvrant pas toute la surface de ses supéromarginales.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les Porcellanasteridae, Benthogenia mahi vit enfouie dans le sédiment en grande profondeur entre 400 m et 1 200 m dans le Pacifique sud-ouest, entre la Nouvelle-Calédonie, les Salomon et le Vanuatu[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les Porcellanasteridae, Benthogenia mahi vit enfouie dans le sédiment en grande profondeur entre 400 m et 1 200 m dans le Pacifique sud-ouest, entre la Nouvelle-Calédonie, les Salomon et le Vanuatu. 
 </t>
         </is>
       </c>
@@ -573,13 +589,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Benthogenia mahi Fau 2024[2].
-Étymologie
-Son épithète spécifique, mahi, lui a été donnée en l'honneur du biologiste marin Christopher L. Mah (d), spécialiste des échninodermes et plus particulier de ceux de la classe des Asteroidea[1],[3].
-Publication originale
-(en) Marine Fau, « Revision of the genus Benthogenia Fisher, 1911 (Asteroidea, Echinodermata), with description of a new species and ossicle anatomy », Zoosystema, vol. 46, no 11,‎ 2024, p. 269-284 (DOI 10.5252/zoosystema2024v46a11, lire en ligne).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Benthogenia mahi Fau 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benthogenia_mahi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benthogenia_mahi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, mahi, lui a été donnée en l'honneur du biologiste marin Christopher L. Mah (d), spécialiste des échninodermes et plus particulier de ceux de la classe des Asteroidea,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benthogenia_mahi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benthogenia_mahi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Marine Fau, « Revision of the genus Benthogenia Fisher, 1911 (Asteroidea, Echinodermata), with description of a new species and ossicle anatomy », Zoosystema, vol. 46, no 11,‎ 2024, p. 269-284 (DOI 10.5252/zoosystema2024v46a11, lire en ligne).</t>
         </is>
       </c>
     </row>
